--- a/SpotifyAlbums.xlsx
+++ b/SpotifyAlbums.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G509"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>artist_names</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>images</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -499,6 +504,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739feadc48ab0661e9b3a9170b</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -534,6 +544,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734bbc6621b51af5ecbdd614b2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -569,6 +584,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27396657f1fbb7539575be55ecb</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -604,6 +624,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27381a6a2cafab2e7a4066b5eec</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -639,6 +664,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cc5695c771fff576d092cea9</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -674,6 +704,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732ae92030b51fb8135d694af9</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -709,6 +744,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27327cbfcede3ccac0945fa56e1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,6 +784,11 @@
           <t>A$AP Rocky</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c8ced8a4d6b6b61eb592f3dd</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -779,6 +824,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738efe5b8d9a3544b98aa6a85e</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -814,6 +864,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27357928e0363878a71692e6a1f</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -849,6 +904,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27319be1f7ca66fa5f2a70ab802</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,6 +944,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739e3502f1aa68ba377f5032c8</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -919,6 +984,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273dea510881ec1e506485303e4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -954,6 +1024,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d5f1bbe527fa685633339add</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -989,6 +1064,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730d5a84e4e47399d2726c330c</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1024,6 +1104,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f41ce44cf2d59d8064a5c6a2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1059,6 +1144,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27341b41e6f7924e530a9b00f9c</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1094,6 +1184,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c57833aca4c4206760a1e892</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1129,6 +1224,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732143db1c88358d70dd898aa3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1164,6 +1264,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738be07181aa935225a6f25d56</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1199,6 +1304,11 @@
           <t>Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273dc7fa10440eb5ddd8d90a8aa</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,6 +1344,11 @@
           <t>Playboi Carti</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27398ea0e689c91f8fea726d9bb</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1269,6 +1384,11 @@
           <t>Playboi Carti</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a1e867d40e7bb29ced5c0194</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,6 +1424,11 @@
           <t>Playboi Carti</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e31a279d267f3b3d8912e6f1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1339,6 +1464,11 @@
           <t>Playboi Carti</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e6778eb47c6b217e4412850d</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,6 +1504,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737e83b7d94b668d9ea94fe7ec</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1409,6 +1544,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27386badd635b69aea887862214</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1444,6 +1584,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bb7e16840d52d7a8380cd308</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1479,6 +1624,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732ae6b8b2f7af8d8bb442b151</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1514,6 +1664,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738f357d2e97fed0265106a502</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1549,6 +1704,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738efe5b8d9a3544b98aa6a85e</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1584,6 +1744,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27357928e0363878a71692e6a1f</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1619,6 +1784,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27319be1f7ca66fa5f2a70ab802</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1654,6 +1824,11 @@
           <t>Future, Lil Uzi Vert</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739e3502f1aa68ba377f5032c8</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1689,6 +1864,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273935d8d5369bc55e74a39303e</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1724,6 +1904,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a40a5fd6c07a612e9930045b</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1759,6 +1944,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735cd6070603a9f2e5dcb01d0c</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1794,6 +1984,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bd2983247446da211b36bc9d</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1829,6 +2024,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e111437ad4fd3f50c8461ec5</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1864,6 +2064,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273da4aa4a30874bf6af4af511b</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1899,6 +2104,11 @@
           <t>Future, Juice WRLD</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273644c510e8d4c02ae69028297</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,6 +2144,11 @@
           <t>Future, Juice WRLD</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273510bc4c21fe25e26a4ac526e</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1969,6 +2184,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c64062196630be5cee367ee8</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,6 +2224,11 @@
           <t>Future</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27305ebf82a98e433c67c5b3f91</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2039,6 +2264,11 @@
           <t>Future, Lil Wayne</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273553162a7641ebb0aac36a90a</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2074,6 +2304,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f8d415dab5ed7e3747bd38dd</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2109,6 +2344,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730a72a98e01100172ab61ccd1</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2144,6 +2384,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bbb071648c950e560ae95b76</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2179,6 +2424,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737939ff11c32b23060cc22bb5</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2214,6 +2464,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f376cceb8f6b87a8ff74a6b5</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2249,6 +2504,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f56eccbf4222bfefaffc9b30</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2284,6 +2544,11 @@
           <t>Chris Brown, Young Thug</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27363e0ddbb488d0eeec0e738fc</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2319,6 +2584,11 @@
           <t>Chris Brown, Young Thug</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730788566129e42887b3baeb5f</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2354,6 +2624,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273540db9d6bae7e57baecf8b49</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2389,6 +2664,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736fcd1b6e205d0d19d9efa0cc</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2424,6 +2704,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ee46e6af394cf44efaab622d</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2459,6 +2744,11 @@
           <t>Young Thug, Young Stoner Life</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fbd8ead00d2fb0649a534212</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2494,6 +2784,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273eff711e24f6f4c15068b3fb0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2529,6 +2824,11 @@
           <t>Future, Young Thug</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731bfeb9d8a84bcd75650b767b</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2564,6 +2864,11 @@
           <t>Future, Young Thug</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735998097d9467eccb3e99b8c1</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2599,6 +2904,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273419cedff7b313b962a93932e</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2634,6 +2944,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d0c72291cd96834e199e1ff8</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2669,6 +2984,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a875c3ec944b4f164ab5c350</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2704,6 +3024,11 @@
           <t>Migos, Young Thug</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bca9fa10bf963415cf05f768</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2739,6 +3064,11 @@
           <t>Young Thug</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739cd3a5bb6e2ad118c4a16460</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2774,6 +3104,11 @@
           <t>Chance the Rapper</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cf2c85c09079470c6662eccf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2809,6 +3144,11 @@
           <t>Chance the Rapper, Jeremih</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e007267bf6d83766ec933de9</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2844,6 +3184,11 @@
           <t>Chance the Rapper, Jeremih</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273542630d7663b6d78922e0685</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2879,6 +3224,11 @@
           <t>Chance the Rapper</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a2a8b029b103df0e90724ad5</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2914,6 +3264,11 @@
           <t>Chance the Rapper</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a29ab3b0e07c6191f7d3ca6b</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2949,6 +3304,11 @@
           <t>Chance the Rapper</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e71dd15fc5bdefd5bff70452</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2984,6 +3344,11 @@
           <t>Chance the Rapper</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d95ab48a8a9de3c4a2cbfe80</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3019,6 +3384,11 @@
           <t>Chance the Rapper</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734bbc300c4e9e8847ca1a2873</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3054,6 +3424,11 @@
           <t>Drake, 21 Savage</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27302854a7060fccc1a66a4b5ad</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3089,6 +3464,11 @@
           <t>Drake, 21 Savage</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730f76fb9c0ab0991c70829a91</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3124,6 +3504,11 @@
           <t>21 Savage, Metro Boomin</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732fafc0749fcd9d3ceb5f7a29</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3159,6 +3544,11 @@
           <t>21 Savage, Metro Boomin</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273aa57907bf0cb2ca0c8cc74bc</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3194,6 +3584,11 @@
           <t>21 Savage, Metro Boomin</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273138e7a41bfb8df5545b6a8ea</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3229,6 +3624,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ca29f023b5d11f85de854f1b</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3264,6 +3664,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273280689ecc5e4b2038bb5e4bd</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3299,6 +3704,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27341d10e59122257f5ce7848f6</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3334,6 +3744,11 @@
           <t>Metro Boomin, 21 Savage</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732887f8c05b5a9f1cb105be29</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3369,6 +3784,11 @@
           <t>21 Savage, Offset, Metro Boomin</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730db43130a9aaa7bae56967ed</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3404,6 +3824,11 @@
           <t>21 Savage, Offset, Metro Boomin</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27380e9d08e5f3f76cf54eda792</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3439,6 +3864,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732719343298d0e4f1790e14cd</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3474,6 +3904,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737b9a68e170a2886a6c0ab1dd</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3509,6 +3944,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732e7d89432a82cf4cfa78a6a9</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3544,6 +3984,11 @@
           <t>21 Savage, Metro Boomin</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732dd1ac4a61495080ef8f78ca</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3579,6 +4024,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733d945468825e08e5743d244e</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3614,6 +4064,11 @@
           <t>21 Savage</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734cd4d4a0f03555d9fe8e55f4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3649,6 +4104,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273038c6347f907a6fedc8e2f2a</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3684,6 +4144,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e7f9c16eb88d65a7a3c68bc7</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3719,6 +4184,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273300af6c15e091795c7997d86</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3754,6 +4224,11 @@
           <t>Lil Wayne, Rich The Kid</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27398d1486777ffe90167ebc5b4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3789,6 +4264,11 @@
           <t>Lil Wayne, Rich The Kid</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273896e6a0a7eb6b58fe0213821</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3824,6 +4304,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d9cc4a9ece3df3ad0b6cdcdc</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3859,6 +4344,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27373c1731bbf757a334f65ba79</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3894,6 +4384,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730ecc76569dda9830ac05be7e</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3929,6 +4424,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739f6fe42777cc1287ee4c06b2</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3964,6 +4464,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730759bcd56459d7307fdc18b7</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3999,6 +4504,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731fceb0586044165d23cb0197</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4034,6 +4544,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ad0d9cb774cd99e2ca93feb3</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4069,6 +4584,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a361da795cec14d5ce1ab35a</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4104,6 +4624,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d11a372d37505b076727527e</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4139,6 +4664,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bb1138165ad4ec2306f4e886</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4174,6 +4704,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273782707feef6286f33bf2463f</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4209,6 +4744,11 @@
           <t>Future, Lil Wayne</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273553162a7641ebb0aac36a90a</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4244,6 +4784,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27385c68ecd002764dbbac5c072</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4279,6 +4824,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b1ce5dfb05567297f910ae20</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4314,6 +4864,11 @@
           <t>Lil Wayne</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c733772b41e459e4e23ae78a</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4349,6 +4904,11 @@
           <t>Drake, 21 Savage</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27302854a7060fccc1a66a4b5ad</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4384,6 +4944,11 @@
           <t>Drake, 21 Savage</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730f76fb9c0ab0991c70829a91</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4419,6 +4984,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738dc0d801766a5aa6a33cbe37</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4454,6 +5024,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27322dfcfcc0742f339986d20cb</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4489,6 +5064,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cd945b4e3de57edd28481a3f</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4524,6 +5104,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737529f737f9811a49f4e04baa</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4559,6 +5144,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bba7cfaf7c59ff0898acba1f</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4594,6 +5184,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273065ff473889ad0080b17aded</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4629,6 +5224,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739c1e02d4becb7c5bbca01e2a</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4664,6 +5264,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731f853c4891e0bc6210b88909</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4699,6 +5304,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27397639c703b41454a3242a0f7</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4734,6 +5344,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f907de96b9a4fbc04accc0d5</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4769,6 +5384,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c185e37be2a06b5c6f2dc704</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4804,6 +5424,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734f0fd9dad63977146e685700</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4839,6 +5464,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b5e29a4897d7cce79673910a</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4874,6 +5504,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739416ed64daf84936d89e671c</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4909,6 +5544,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27372d0af2341359a90710c1fdc</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4944,6 +5584,11 @@
           <t>Drake, Future</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736acaae5585628cc2a97f053f</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4979,6 +5624,11 @@
           <t>Drake, Future</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d6adfbd3f091d6f2b9af6507</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5014,6 +5664,11 @@
           <t>Drake</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732090f4f6cc406e6d3c306733</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5049,6 +5704,11 @@
           <t>JACKBOYS, Travis Scott</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273dfc2f59568272de50a257f2f</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5084,6 +5744,11 @@
           <t>Travis Scott</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273072e9faef2ef7b6db63834a3</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5119,6 +5784,11 @@
           <t>Travis Scott</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730eb9240c0c5bbba4a0495587</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5154,6 +5824,11 @@
           <t>Huncho Jack, Travis Scott, Quavo</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273631973893e94d01cfcdf0e5e</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5189,6 +5864,11 @@
           <t>Travis Scott</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f54b99bf27cda88f4a7403ce</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5224,6 +5904,11 @@
           <t>Travis Scott</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733cdcaa1045106a5767aa79d9</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5259,6 +5944,11 @@
           <t>Travis Scott</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737433176f037e0ba14190c34f</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5294,6 +5984,11 @@
           <t>Travis Scott</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27345ecf0c9464beb40d8e8f41f</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5329,6 +6024,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a782c3b830a9b62630e296f7</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5364,6 +6064,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fdd321036936b28b9a9d1532</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5399,6 +6104,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737459992b444de38842b9bee7</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5434,6 +6144,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273592ac7d5d3cdc03c3987722c</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5469,6 +6184,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bf640cd39d097f99c6f6e48f</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5504,6 +6224,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e620ae3f8d3ffa49777dc559</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5539,6 +6264,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733e0698e4ae5ffb82a005aeeb</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5574,6 +6304,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735059100e732e6e17b9adbf09</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5609,6 +6344,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738b27d35aa2c6dcf99895d664</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5644,6 +6384,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e871d679f599b5de08c7ed70</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5679,6 +6424,11 @@
           <t>Juice WRLD</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f7db43292a6a99b21b51d5b4</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5714,6 +6464,11 @@
           <t>Future, Juice WRLD</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273644c510e8d4c02ae69028297</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5749,6 +6504,11 @@
           <t>Future, Juice WRLD</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273510bc4c21fe25e26a4ac526e</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5784,6 +6544,11 @@
           <t>Dreamville, J. Cole</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273580d8d4b0061e5a244c86c77</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5819,6 +6584,11 @@
           <t>Dreamville, J. Cole</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b51248f804c70aab2ab8203b</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5854,6 +6624,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27310e6745bb2f179dd3616b85f</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5889,6 +6664,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27398174a97206614a1e1cf8631</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5924,6 +6704,11 @@
           <t>Dreamville, J. Cole</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a145ed96ce61bf4201d619c3</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5959,6 +6744,11 @@
           <t>Dreamville, J. Cole</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fdb12cf8fb0c2b5a987eeb0d</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5994,6 +6784,11 @@
           <t>Dreamville, J. Cole</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c0ae820e3b64854de4642101</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6029,6 +6824,11 @@
           <t>Dreamville, J. Cole</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733441fac616316109e02f9f83</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6064,6 +6864,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cf0f0affd0138a7442f13706</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6099,6 +6904,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e3adf4e49e3f27c7d11735fd</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6134,6 +6944,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f4ca75192df162f78a24023e</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6169,6 +6984,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273156cd8a0a016a5e348ed71eb</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6204,6 +7024,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737617e402e6b7fef18f4fa7c9</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6239,6 +7064,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c6e0948bbb0681ff29cdbae8</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6274,6 +7104,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733e9d25d86733baa91fc9e7b6</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6309,6 +7144,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bcdfc0c2ca343f704cc36934</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6344,6 +7184,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c1bb124f993488cf21b269fc</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6379,6 +7224,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273dea680b04cd9909224f1e8f6</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6414,6 +7264,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c38327dd42b9d2b4954dc759</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6449,6 +7304,11 @@
           <t>J. Cole</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27399da48a530f6ca2ef86da3cc</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6484,6 +7344,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27366b04b41fa6f8908dce86695</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6519,6 +7384,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27306c1d810ee3d96cb5cf8c435</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6554,6 +7424,11 @@
           <t>Lil Baby, Lil Durk</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739fa79040de02a72663f24323</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6589,6 +7464,11 @@
           <t>Lil Baby, Lil Durk</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c3076332cdfb113e825abf28</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6624,6 +7504,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273aca2750de362a4660b693411</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6659,6 +7544,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273256dd80461116f36df274b0a</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6694,6 +7584,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27376a4577dd654bf457a4ad1f8</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6729,6 +7624,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735593b778deac6fb770a2a5c9</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6764,6 +7664,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f46a9ad551acbdab8f72fd89</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6799,6 +7704,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27357eae8beec97fbcb8c2ba767</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6834,6 +7744,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737cb0c4f7761f6dd66aaca065</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6869,6 +7784,11 @@
           <t>Lil Baby, Gunna</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ce159a3ba2096e13fa9d4b4c</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6904,6 +7824,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736cab41f8c84d6164976400d4</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6939,6 +7864,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735067cc9332e2fdc69ea7b7a9</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6974,6 +7904,11 @@
           <t>Lil Baby, Marlo</t>
         </is>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735032112edb07f2106e8b6862</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7009,6 +7944,11 @@
           <t>Lil Baby, Marlo</t>
         </is>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b880afb630274dee302642a4</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7044,6 +7984,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27374c8919641c8c05e3df02e18</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7079,6 +8024,11 @@
           <t>Lil Baby</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e4864532ded5d475a1581aba</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7114,6 +8064,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732e02117d76426a08ac7c174f</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7149,6 +8104,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a291fc7fb5c6b3d5ba818729</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7184,6 +8144,11 @@
           <t>Kendrick Lamar, SZA</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c027ad28821777b00dcaa888</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7219,6 +8184,11 @@
           <t>Kendrick Lamar, SZA</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a8f9bf75a4f4ba99439800b3</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7254,6 +8224,11 @@
           <t>Kendrick Lamar, SZA</t>
         </is>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273132072fa796787ddd6325a6d</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7289,6 +8264,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273add9eb25744782c3717c9368</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7324,6 +8304,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738b849141229ab227ab397603</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7359,6 +8344,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732fad9364b7dfca0c2ede0da4</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7394,6 +8384,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738b52c6b9bc4e43d873869699</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7429,6 +8424,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732c6dd664eb1a4c7afb386e47</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7464,6 +8464,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732171b967bef683ab0eaf12e9</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7499,6 +8504,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738c697f553a46006a5d8886b2</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7534,6 +8544,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273358e3c8b0be69fd2f143129e</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7569,6 +8584,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e69c637a33eeb3f072d8f57c</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7604,6 +8624,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cdb645498cd3d8a2db4d05e1</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7639,6 +8664,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730ae6645266b8f10619d6b77c</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7674,6 +8704,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c54f244336fd6e0e1518fe77</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7709,6 +8744,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737468467632649e2f7903d096</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7744,6 +8784,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27363dd15c6f117165a13609f62</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7779,6 +8824,11 @@
           <t>Kendrick Lamar</t>
         </is>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c61fdb864f1a9d77595cc7c3</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7814,6 +8864,11 @@
           <t>Roddy Ricch</t>
         </is>
       </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d513f31f1445121235424acb</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7849,6 +8904,11 @@
           <t>Roddy Ricch</t>
         </is>
       </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733f37e5797efe518130ec6e37</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7884,6 +8944,11 @@
           <t>Roddy Ricch</t>
         </is>
       </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738007e1fcf108e4270b6df942</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7919,6 +8984,11 @@
           <t>Roddy Ricch</t>
         </is>
       </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273688b4348a45991ebb5ee0107</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7954,6 +9024,11 @@
           <t>Roddy Ricch</t>
         </is>
       </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273600adbc750285ea1a8da249f</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7989,6 +9064,11 @@
           <t>Roddy Ricch</t>
         </is>
       </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273434f4eeb4231f6f4862cafd4</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8024,6 +9104,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273716d715fe3a1e25e1c6d1487</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8059,6 +9144,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27351dd2ce1ed065993c13a79ae</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8094,6 +9184,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cd63c5962050729d260077d6</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8129,6 +9224,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735132ca4fc74bf9ef23ffe1a8</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8164,6 +9264,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27301718a65911feea9435cfae6</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8199,6 +9304,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273726ec4d0c541372e8e8cbce7</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8234,6 +9344,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27313ca0e966d7b056bba3da8d6</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8269,6 +9384,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733e52eda6f8625563e05112ac</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8304,6 +9424,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734a46e5ed7946b7cb9b9512e1</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8339,6 +9464,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730a6f4e78a01fd779ebaace83</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8374,6 +9504,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fe6f72793f096bdc6fc543eb</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8409,6 +9544,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e1d6f6a2dc63330e11d13325</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8444,6 +9584,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273374fec75cb20136baf80db1a</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8479,6 +9624,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fd31cd96c4ba94c40532cc34</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8514,6 +9664,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736ac37f6a8164a95c328852b0</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8549,6 +9704,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273634ec2a4ba1fe13ef8e0d61b</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8584,6 +9744,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273066788ced46c2becfdb8a39d</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8619,6 +9784,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735f53bed8c38ae1876de6d9ae</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8654,6 +9824,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27336df324f2a4ff21ee8b82ecc</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8689,6 +9864,11 @@
           <t>Meek Mill</t>
         </is>
       </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e7fb811edab4f80843a7b94f</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8724,6 +9904,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c5663e50de353981ed2b1a37</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8759,6 +9944,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cad190f1a73c024e5a40dddd</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8794,6 +9984,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731bb797bbfe2480650b6c2964</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8829,6 +10024,11 @@
           <t>KIDS SEE GHOSTS, Kanye West, Kid Cudi</t>
         </is>
       </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a18eee303d4e1c0c09edbcb3</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8864,6 +10064,11 @@
           <t>KIDS SEE GHOSTS, Kanye West, Kid Cudi</t>
         </is>
       </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273013c00ee367dd85396f79c82</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8899,6 +10104,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730cd942c1a864afa4e92d04f2</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8934,6 +10144,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732a7db835b912dc5014bd37f4</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8969,6 +10184,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d93bcf515b2eb64dcc25463b</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9004,6 +10224,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731dacfbc31cc873d132958af9</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9039,6 +10264,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27370cf055d00ab1ec0290d3d5a</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9074,6 +10304,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273699bfca9512ee8d1fbf126a7</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9109,6 +10344,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273940bc47d2136cc141eda6193</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9144,6 +10384,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732a0e1044519b4da374703952</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9179,6 +10424,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27352e61456aa4995ba48d94e30</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9214,6 +10464,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bf2d62374f877d312b34e67a</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9249,6 +10504,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d3002b1a44e2a79abde59556</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9284,6 +10544,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d2801f96923ebab452baa232</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9319,6 +10584,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d9194aa18fa4c9362b47464f</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9354,6 +10624,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27353e1d2591f23b32376976c88</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9389,6 +10664,11 @@
           <t>Kanye West</t>
         </is>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273baf2a68126739ff553f2930a</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9424,6 +10704,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27336b9c01762b7ef92e03d716e</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9459,6 +10744,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737513c4956ea5552caf02eab6</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9494,6 +10784,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f981c92a29b11a363b73a9ed</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9529,6 +10824,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273465e19bc73df944e1fb6f6ec</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9564,6 +10864,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27316667761b90f600c1d7b08e6</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9599,6 +10904,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734af3be606885e7f5559f4031</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9634,6 +10944,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c386580fbce700dec591835e</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9669,6 +10984,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27304d6ad905cfb1e52a1b4e258</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9704,6 +11024,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27370cf055d00ab1ec0290d3d5a</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9739,6 +11064,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273699bfca9512ee8d1fbf126a7</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9774,6 +11104,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273940bc47d2136cc141eda6193</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9809,6 +11144,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732a0e1044519b4da374703952</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9844,6 +11184,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27352e61456aa4995ba48d94e30</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9879,6 +11224,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bf2d62374f877d312b34e67a</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9914,6 +11264,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d3002b1a44e2a79abde59556</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9949,6 +11304,11 @@
           <t>JAY-Z, Kanye West</t>
         </is>
       </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d2801f96923ebab452baa232</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9984,6 +11344,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27317cc8e4f33e48b00588a769f</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10019,6 +11384,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fec1b815bb3c50a64a90fd10</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10054,6 +11424,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734b328c297d151d432c7b1aa3</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10089,6 +11464,11 @@
           <t>JAY-Z</t>
         </is>
       </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d460209b8395c928aa0391f6</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10124,6 +11504,11 @@
           <t>Isaiah Rashad</t>
         </is>
       </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f9cb45f50aaf11d04514cf2e</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10159,6 +11544,11 @@
           <t>Isaiah Rashad</t>
         </is>
       </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ac895ae149e004dcbb6367be</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10194,6 +11584,11 @@
           <t>Isaiah Rashad</t>
         </is>
       </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731b4d3e18ae0f8d8d84590c1a</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10229,6 +11624,11 @@
           <t>Isaiah Rashad</t>
         </is>
       </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fbdec8696ff05ae19265dfa0</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10264,6 +11664,11 @@
           <t>Isaiah Rashad</t>
         </is>
       </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273986cd6b330f7405b17a604f4</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10299,6 +11704,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27375a2c90eca545e6b0557897c</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10334,6 +11744,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b80f17928d12a03f4cec33fd</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10369,6 +11784,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a18291a1854b9b6371ff9663</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10404,6 +11824,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b84b0516d901f95461bb5165</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10439,6 +11864,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736851bc06fc0d85bbe74cffd7</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10474,6 +11904,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732f44aec83b20e40f3baef73c</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10509,6 +11944,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730bb096916743c3b7852ea818</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10544,6 +11984,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e4073def0c03a91e3fceaf73</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10579,6 +12024,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e58367c1e458ee5350e4b6cc</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10614,6 +12064,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f49aaf134aa164922ebbd5d1</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10649,6 +12104,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273dee6b58d35215322626b5701</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10684,6 +12144,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27316c053fa6e639a75ae4d62f4</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10719,6 +12184,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d868999ff695d4c59b715bcc</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10754,6 +12224,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273009dc7b4e062efa9614bb9b4</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10789,6 +12264,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cb66bcc14c6f857c127d5969</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10824,6 +12304,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27357195dfe8926f713b21d6cac</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10859,6 +12344,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f98e156a7e32f58c32286af9</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10894,6 +12384,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273502209beb6d4cd94b6590569</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10929,6 +12424,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737b0408ba04049d1048933557</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10964,6 +12464,11 @@
           <t>Eminem</t>
         </is>
       </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736029d5a28c72d0eae7d83868</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10999,6 +12504,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c7d31eab93d5e6f7fd2a0a23</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11034,6 +12544,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27393f9e21cfe7d2a9a6673ce87</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11069,6 +12584,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738350e0c4238db3dde31b69c0</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11104,6 +12624,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27379476cf856443329e6c52c04</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11139,6 +12664,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d5d1c0ff8a73c374763ecda2</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11174,6 +12704,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27346e1307c35579c3483ea7b03</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11209,6 +12744,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a59b9c5102a17aeb4e30cba2</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11244,6 +12784,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27377ada0863603903f57b34369</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11279,6 +12824,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735ed042f6acab601cada08c61</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11314,6 +12864,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27310f83533366683a01ac817f9</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11349,6 +12904,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cd90e898c070ef21812ab363</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11384,6 +12944,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27362a57823eced1cb4fd93b2c1</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11419,6 +12984,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737c0eb35baafa1259473bfedc</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11454,6 +13024,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730ae6a8d3e8957f0b3f35bb44</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11489,6 +13064,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733f5a9ef25f3fd4c11c7e78bc</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11524,6 +13104,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734c13924a72f4b30c23f196b1</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11559,6 +13144,11 @@
           <t>Pop Smoke</t>
         </is>
       </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738fe5d04b06aff90f9fe796f5</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11566,32 +13156,37 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>spotify:album:4lXLULUDQvqV1yHtLW5fyL</t>
+          <t>spotify:album:6ciIG1XKTlVIn0Yl8rvsce</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Lil Durk Presents: Loyal Bros 2</t>
+          <t>Almost Healed</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>0, spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
+          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Only The Family, Lil Durk</t>
+          <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736234c2c6d4bb935839ac4719</t>
         </is>
       </c>
     </row>
@@ -11601,7 +13196,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>spotify:album:4bJOIOKUAXFamjkGQwiVH6</t>
+          <t>spotify:album:4lXLULUDQvqV1yHtLW5fyL</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11627,6 +13222,11 @@
       <c r="G320" t="inlineStr">
         <is>
           <t>Only The Family, Lil Durk</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ae7a96d9d5107992d40d94c5</t>
         </is>
       </c>
     </row>
@@ -11636,32 +13236,37 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>spotify:album:2rGN0kLth4hNmyMffDTlpX</t>
+          <t>spotify:album:4bJOIOKUAXFamjkGQwiVH6</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>7220 (Deluxe)</t>
+          <t>Lil Durk Presents: Loyal Bros 2</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
+          <t>0, spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Lil Durk</t>
+          <t>Only The Family, Lil Durk</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27379a761c821f51c3aee407772</t>
         </is>
       </c>
     </row>
@@ -11671,22 +13276,22 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>spotify:album:42q2L3R0LUPv3tM1Mabvyl</t>
+          <t>spotify:album:2rGN0kLth4hNmyMffDTlpX</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>7220 (Reloaded)</t>
+          <t>7220 (Deluxe)</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -11697,6 +13302,11 @@
       <c r="G322" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a6952f32937f16cc81b4abca</t>
         </is>
       </c>
     </row>
@@ -11706,22 +13316,22 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>spotify:album:0vRN2oePynCSTspdY9NDsM</t>
+          <t>spotify:album:42q2L3R0LUPv3tM1Mabvyl</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>7220</t>
+          <t>7220 (Reloaded)</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -11732,6 +13342,11 @@
       <c r="G323" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27369ed6f07008b1bb3bcf846dd</t>
         </is>
       </c>
     </row>
@@ -11741,22 +13356,22 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>spotify:album:1ImQBMrMvxZZqwTnFSRvhT</t>
+          <t>spotify:album:0vRN2oePynCSTspdY9NDsM</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>7220 (Reloaded)</t>
+          <t>7220</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -11767,6 +13382,11 @@
       <c r="G324" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739984d05ec46e029f7b942aca</t>
         </is>
       </c>
     </row>
@@ -11776,12 +13396,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>spotify:album:6CvBb1XqN0igtQrWrbXD80</t>
+          <t>spotify:album:1ImQBMrMvxZZqwTnFSRvhT</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>The Voice of the Heroes</t>
+          <t>7220 (Reloaded)</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -11791,17 +13411,22 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>spotify:artist:5f7VJjfbwm532GiveGC0ZK, spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
+          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Lil Baby, Lil Durk</t>
+          <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732f05bd9ab6bb020c57a871e2</t>
         </is>
       </c>
     </row>
@@ -11811,7 +13436,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>spotify:album:2AB0tGyHVCLsZoGGkzufTt</t>
+          <t>spotify:album:6CvBb1XqN0igtQrWrbXD80</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11837,6 +13462,11 @@
       <c r="G326" t="inlineStr">
         <is>
           <t>Lil Baby, Lil Durk</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739fa79040de02a72663f24323</t>
         </is>
       </c>
     </row>
@@ -11846,32 +13476,37 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>spotify:album:6lb9q7QZwjMj9EE7M664sK</t>
+          <t>spotify:album:2AB0tGyHVCLsZoGGkzufTt</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>The Voice (Deluxe)</t>
+          <t>The Voice of the Heroes</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
+          <t>spotify:artist:5f7VJjfbwm532GiveGC0ZK, spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Lil Durk</t>
+          <t>Lil Baby, Lil Durk</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c3076332cdfb113e825abf28</t>
         </is>
       </c>
     </row>
@@ -11881,7 +13516,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>spotify:album:5ejSKwK8KzUHzFEZvdeT7A</t>
+          <t>spotify:album:6lb9q7QZwjMj9EE7M664sK</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11907,6 +13542,11 @@
       <c r="G328" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27386a14ed0bbd8472d0b718ae6</t>
         </is>
       </c>
     </row>
@@ -11916,22 +13556,22 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>spotify:album:33lOYXjswrDuzTqTNJYSWy</t>
+          <t>spotify:album:5ejSKwK8KzUHzFEZvdeT7A</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>The Voice</t>
+          <t>The Voice (Deluxe)</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>2020-12-24</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -11942,6 +13582,11 @@
       <c r="G329" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e532d237470d11aea2f40d8b</t>
         </is>
       </c>
     </row>
@@ -11951,7 +13596,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>spotify:album:1Gonl2Jwl4WeJM6qUomM8s</t>
+          <t>spotify:album:33lOYXjswrDuzTqTNJYSWy</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11977,6 +13622,11 @@
       <c r="G330" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273317f63dd5214d9a5d2cb7c71</t>
         </is>
       </c>
     </row>
@@ -11986,22 +13636,22 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>spotify:album:6SaN9NlFIy4VwdkzXc1yRM</t>
+          <t>spotify:album:1Gonl2Jwl4WeJM6qUomM8s</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Just Cause Y'all Waited 2 (Deluxe)</t>
+          <t>The Voice</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>2020-06-26</t>
+          <t>2020-12-24</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -12012,6 +13662,11 @@
       <c r="G331" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fc62feb0e25d88d757021c1d</t>
         </is>
       </c>
     </row>
@@ -12021,7 +13676,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>spotify:album:7biDGtfTfsi5b2twlxKb6p</t>
+          <t>spotify:album:6SaN9NlFIy4VwdkzXc1yRM</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12047,6 +13702,11 @@
       <c r="G332" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fec5f282565cc61622be8e04</t>
         </is>
       </c>
     </row>
@@ -12056,22 +13716,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>spotify:album:3D4bwVn4Wp8Za0Amkyd5I5</t>
+          <t>spotify:album:7biDGtfTfsi5b2twlxKb6p</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Just Cause Y'all Waited 2</t>
+          <t>Just Cause Y'all Waited 2 (Deluxe)</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-06-26</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -12082,6 +13742,11 @@
       <c r="G333" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bdce6158952046744f7ee74e</t>
         </is>
       </c>
     </row>
@@ -12091,7 +13756,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>spotify:album:5F43IQLXSgg42XUIcuE9wF</t>
+          <t>spotify:album:3D4bwVn4Wp8Za0Amkyd5I5</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12117,6 +13782,11 @@
       <c r="G334" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f8558e8b0ceb521977e4c5bf</t>
         </is>
       </c>
     </row>
@@ -12126,32 +13796,37 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>spotify:album:4T7cvmdhs8ehPlhghwStjM</t>
+          <t>spotify:album:5F43IQLXSgg42XUIcuE9wF</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Family Over Everything</t>
+          <t>Just Cause Y'all Waited 2</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7, 0</t>
+          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Lil Durk, Only The Family</t>
+          <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27390715e81078fac99db7333db</t>
         </is>
       </c>
     </row>
@@ -12161,7 +13836,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>spotify:album:0TRATpl5uUu43NEqXISPWm</t>
+          <t>spotify:album:4T7cvmdhs8ehPlhghwStjM</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12187,6 +13862,11 @@
       <c r="G336" t="inlineStr">
         <is>
           <t>Lil Durk, Only The Family</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738587611866a00ae5916eea3b</t>
         </is>
       </c>
     </row>
@@ -12196,12 +13876,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>spotify:album:3kj9O7YYodmvzwq8ObaWU9</t>
+          <t>spotify:album:0TRATpl5uUu43NEqXISPWm</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Love Songs 4 the Streets 2</t>
+          <t>Family Over Everything</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -12211,17 +13891,22 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>2019-08-02</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7</t>
+          <t>spotify:artist:3hcs9uc56yIGFCSy9leWe7, 0</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Lil Durk</t>
+          <t>Lil Durk, Only The Family</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738ae48810a66e3a577d5e07c9</t>
         </is>
       </c>
     </row>
@@ -12231,7 +13916,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>spotify:album:0mhcrrQsXUOapFWcHGMyKq</t>
+          <t>spotify:album:3kj9O7YYodmvzwq8ObaWU9</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12257,6 +13942,11 @@
       <c r="G338" t="inlineStr">
         <is>
           <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738c20f9fe5d480d13f980edc2</t>
         </is>
       </c>
     </row>
@@ -12294,6 +13984,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27314d91ebdd6d7e2931322cc1a</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12329,6 +14024,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cd969f68d680520651c6f1ee</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12364,6 +14064,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bbb071648c950e560ae95b76</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12399,6 +14104,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737939ff11c32b23060cc22bb5</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12434,6 +14144,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f376cceb8f6b87a8ff74a6b5</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12469,6 +14184,11 @@
           <t>Young Stoner Life, Young Thug, Gunna</t>
         </is>
       </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f56eccbf4222bfefaffc9b30</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12504,6 +14224,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fae944bd93dd1e47591a0df9</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12539,6 +14264,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273edc6909900e9fbcfe30be548</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12574,6 +14304,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d7547a7624116ac5f8a51fd2</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12609,6 +14344,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733e0e0449745d8454246d2615</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12644,6 +14384,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bddf008ccaea655e61892c27</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12679,6 +14424,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732b6db05d09f6abfc601203e0</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -12714,6 +14464,11 @@
           <t>Lil Baby, Gunna</t>
         </is>
       </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ce159a3ba2096e13fa9d4b4c</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -12749,6 +14504,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d00a36fea0639c48eb0ee312</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12784,6 +14544,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731cfe904104e785503246fe53</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12819,6 +14584,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273dcb5f3bbd5e9fbe873ac68f4</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12854,6 +14624,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e4535e50066ad13176b12d73</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -12889,6 +14664,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d7ee986deb6c2903b225ada4</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -12924,6 +14704,11 @@
           <t>Gunna</t>
         </is>
       </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d85ca96db7186d800e75e895</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -12959,6 +14744,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bbdaebbe96beb77e38781def</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12994,6 +14784,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27348b6cff484632a9dba066604</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13029,6 +14824,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d01b8867ca76ba7a4c15a9a4</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13064,6 +14864,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736bd2b5963f92c4c24975473f</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13099,6 +14904,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273eff5054a41cee474ac1149ab</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13134,6 +14944,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273157274a974ff87db8de63104</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13169,6 +14984,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273530e4657d123427b8f54f091</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13204,6 +15024,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273894969f73262da920df1fa90</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13239,6 +15064,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e6496e26fc24d8269171b1c4</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13274,6 +15104,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cd81b9f0393348b6537c9d92</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13309,6 +15144,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27393f431ca9893d41cb410b3aa</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -13344,6 +15184,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f6f4f6d474b1de48e0ff1889</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13379,6 +15224,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27377314c194e1c9a16ff2959f3</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -13414,6 +15264,11 @@
           <t>Trippie Redd</t>
         </is>
       </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27392bb8047753d97ff274b2f5f</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13421,32 +15276,37 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>spotify:album:214f4uAY0p2KgY7Fl4fBgk</t>
+          <t>spotify:album:69Nk8sC4f7l2F6pHrq2Ax5</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>LIFE'S A TRIP</t>
+          <t>A Love Letter To You 3 (Sped Up)</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>2018-08-10</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>spotify:artist:6Xgp2XMz1fhVYe7i6yNAax</t>
+          <t>0, spotify:artist:6Xgp2XMz1fhVYe7i6yNAax</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>Trippie Redd</t>
+          <t>10X, Trippie Redd</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273116263cb4412633e5bcee82d</t>
         </is>
       </c>
     </row>
@@ -13456,12 +15316,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>spotify:album:55XA1uIQSqmlTBkVVx6ptz</t>
+          <t>spotify:album:214f4uAY0p2KgY7Fl4fBgk</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>A Love Letter To You 2</t>
+          <t>LIFE'S A TRIP</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -13471,7 +15331,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>2017-10-06</t>
+          <t>2018-08-10</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -13482,6 +15342,11 @@
       <c r="G373" t="inlineStr">
         <is>
           <t>Trippie Redd</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d959c12f4de683c39a1bafe3</t>
         </is>
       </c>
     </row>
@@ -13491,12 +15356,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>spotify:album:6tLES24vsABpoBU2UsQybl</t>
+          <t>spotify:album:55XA1uIQSqmlTBkVVx6ptz</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>A Love Letter To You 2 (Sped Up)</t>
+          <t>A Love Letter To You 2</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -13511,12 +15376,17 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>0, spotify:artist:6Xgp2XMz1fhVYe7i6yNAax</t>
+          <t>spotify:artist:6Xgp2XMz1fhVYe7i6yNAax</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>10X, Trippie Redd</t>
+          <t>Trippie Redd</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e991f37dbb44249ac01314f0</t>
         </is>
       </c>
     </row>
@@ -13526,22 +15396,22 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>spotify:album:2Pdkkur0XxF78O9VFMV2ZF</t>
+          <t>spotify:album:6tLES24vsABpoBU2UsQybl</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>A Love Letter To You (Sped Up)</t>
+          <t>A Love Letter To You 2 (Sped Up)</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>2017-05-26</t>
+          <t>2017-10-06</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -13552,6 +15422,11 @@
       <c r="G375" t="inlineStr">
         <is>
           <t>10X, Trippie Redd</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738d9676361984d8354f817357</t>
         </is>
       </c>
     </row>
@@ -13561,12 +15436,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>spotify:album:7ae73nWyKrrH9wwGm97RIA</t>
+          <t>spotify:album:2Pdkkur0XxF78O9VFMV2ZF</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>A Love Letter To You</t>
+          <t>A Love Letter To You (Sped Up)</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -13576,17 +15451,22 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>2017-05-14</t>
+          <t>2017-05-26</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>spotify:artist:6Xgp2XMz1fhVYe7i6yNAax</t>
+          <t>0, spotify:artist:6Xgp2XMz1fhVYe7i6yNAax</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Trippie Redd</t>
+          <t>10X, Trippie Redd</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27380f12e271090833ae09dd07b</t>
         </is>
       </c>
     </row>
@@ -13596,32 +15476,37 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>spotify:album:4aW4iDepQUl5ZCHd1Gli68</t>
+          <t>spotify:album:7ae73nWyKrrH9wwGm97RIA</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Entergalactic</t>
+          <t>A Love Letter To You</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2017-05-14</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>spotify:artist:0fA0VVWsXO9YnASrzqfmYu</t>
+          <t>spotify:artist:6Xgp2XMz1fhVYe7i6yNAax</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Kid Cudi</t>
+          <t>Trippie Redd</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738dca9cbf206c611b08a43c17</t>
         </is>
       </c>
     </row>
@@ -13631,7 +15516,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>spotify:album:3bt3iu7uuTxjgPseAalpS8</t>
+          <t>spotify:album:4aW4iDepQUl5ZCHd1Gli68</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13657,6 +15542,11 @@
       <c r="G378" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27371cecf4c653a4bad539da13d</t>
         </is>
       </c>
     </row>
@@ -13666,22 +15556,22 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>spotify:album:2blXZboio9DF8VC39LmUag</t>
+          <t>spotify:album:3bt3iu7uuTxjgPseAalpS8</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>A Kid Named Cudi</t>
+          <t>Entergalactic</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -13692,6 +15582,11 @@
       <c r="G379" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27337f53ec24f8888d4c15aa114</t>
         </is>
       </c>
     </row>
@@ -13701,22 +15596,22 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>spotify:album:19ZYOtXGdqGpeeDS9SJccD</t>
+          <t>spotify:album:2blXZboio9DF8VC39LmUag</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>The Boy Who Flew To The Moon (Vol. 1)</t>
+          <t>A Kid Named Cudi</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -13727,6 +15622,11 @@
       <c r="G380" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cd4666c02c9749c71dabb8ea</t>
         </is>
       </c>
     </row>
@@ -13736,12 +15636,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>spotify:album:64nbgEEIcY4g1ElVLONJ0w</t>
+          <t>spotify:album:19ZYOtXGdqGpeeDS9SJccD</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Man On The Moon III: The Chosen</t>
+          <t>The Boy Who Flew To The Moon (Vol. 1)</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -13751,7 +15651,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>2020-12-11</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -13762,6 +15662,11 @@
       <c r="G381" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ef3b5a279ee075749b67e0a7</t>
         </is>
       </c>
     </row>
@@ -13771,7 +15676,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>spotify:album:7vLxDionyOHSDmYS7Wpwdp</t>
+          <t>spotify:album:64nbgEEIcY4g1ElVLONJ0w</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13797,6 +15702,11 @@
       <c r="G382" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739bf7698a1737bc7c2e4a14f3</t>
         </is>
       </c>
     </row>
@@ -13806,32 +15716,37 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>spotify:album:1oK1GzEMNDjCt7EYYpomwc</t>
+          <t>spotify:album:7vLxDionyOHSDmYS7Wpwdp</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>KIDS SEE GHOSTS</t>
+          <t>Man On The Moon III: The Chosen</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>2018-06-12</t>
+          <t>2020-12-11</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>0, spotify:artist:5K4W6rqBFWDnAN6FQUkS6x, spotify:artist:0fA0VVWsXO9YnASrzqfmYu</t>
+          <t>spotify:artist:0fA0VVWsXO9YnASrzqfmYu</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>KIDS SEE GHOSTS, Kanye West, Kid Cudi</t>
+          <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734fd23a4c21f50d54326a732d</t>
         </is>
       </c>
     </row>
@@ -13841,7 +15756,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>spotify:album:6pwuKxMUkNg673KETsXPUV</t>
+          <t>spotify:album:1oK1GzEMNDjCt7EYYpomwc</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13856,7 +15771,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>2018-06-08</t>
+          <t>2018-06-12</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -13867,6 +15782,11 @@
       <c r="G384" t="inlineStr">
         <is>
           <t>KIDS SEE GHOSTS, Kanye West, Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a18eee303d4e1c0c09edbcb3</t>
         </is>
       </c>
     </row>
@@ -13876,32 +15796,37 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>spotify:album:5bCk3kWAy2JbbTfHqzZCII</t>
+          <t>spotify:album:6pwuKxMUkNg673KETsXPUV</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Passion, Pain &amp; Demon Slayin'</t>
+          <t>KIDS SEE GHOSTS</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>2016-12-16</t>
+          <t>2018-06-08</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>spotify:artist:0fA0VVWsXO9YnASrzqfmYu</t>
+          <t>0, spotify:artist:5K4W6rqBFWDnAN6FQUkS6x, spotify:artist:0fA0VVWsXO9YnASrzqfmYu</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Kid Cudi</t>
+          <t>KIDS SEE GHOSTS, Kanye West, Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273013c00ee367dd85396f79c82</t>
         </is>
       </c>
     </row>
@@ -13911,7 +15836,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>spotify:album:09hZ7I4QYwPAruwUshmzyu</t>
+          <t>spotify:album:5bCk3kWAy2JbbTfHqzZCII</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13937,6 +15862,11 @@
       <c r="G386" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735c8d9ad991d2a23eb039d8dd</t>
         </is>
       </c>
     </row>
@@ -13946,22 +15876,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>spotify:album:6e8pwYKSF9iZjpPep1DVzx</t>
+          <t>spotify:album:09hZ7I4QYwPAruwUshmzyu</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Speedin' Bullet 2 Heaven</t>
+          <t>Passion, Pain &amp; Demon Slayin'</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>2015-12-04</t>
+          <t>2016-12-16</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -13972,6 +15902,11 @@
       <c r="G387" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27389b30a1a65c5ade37bbdec14</t>
         </is>
       </c>
     </row>
@@ -13981,22 +15916,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>spotify:album:7qrXPKTQeYWTp42aJqa9s6</t>
+          <t>spotify:album:6e8pwYKSF9iZjpPep1DVzx</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>KiD CuDi presents SATELLITE FLIGHT: The journey to Mother Moon</t>
+          <t>Speedin' Bullet 2 Heaven</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>2014-02-25</t>
+          <t>2015-12-04</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -14007,6 +15942,11 @@
       <c r="G388" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a4ea8c76f78b72ce3bda7625</t>
         </is>
       </c>
     </row>
@@ -14016,7 +15956,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>spotify:album:4u9kEyafQ7sW0Z1gpJrDxp</t>
+          <t>spotify:album:7qrXPKTQeYWTp42aJqa9s6</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -14031,7 +15971,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2014-02-25</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -14042,6 +15982,11 @@
       <c r="G389" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737c0f6a5c2fa4cd12049aff7e</t>
         </is>
       </c>
     </row>
@@ -14051,7 +15996,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>spotify:album:4XCZavI2oMYJJWM4bpqFT4</t>
+          <t>spotify:album:4u9kEyafQ7sW0Z1gpJrDxp</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14077,6 +16022,11 @@
       <c r="G390" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e2d1b3c2dbdfe07013fb91bb</t>
         </is>
       </c>
     </row>
@@ -14086,7 +16036,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>spotify:album:20QfZnJG40k04n7mHXd1Sw</t>
+          <t>spotify:album:4XCZavI2oMYJJWM4bpqFT4</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14112,6 +16062,11 @@
       <c r="G391" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27371101db5ba8f3e49592290db</t>
         </is>
       </c>
     </row>
@@ -14121,7 +16076,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>spotify:album:4XQuWGLAH355kLVttbY8TT</t>
+          <t>spotify:album:20QfZnJG40k04n7mHXd1Sw</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14147,6 +16102,11 @@
       <c r="G392" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27337018c5091440a64e72864d4</t>
         </is>
       </c>
     </row>
@@ -14156,22 +16116,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>spotify:album:262o5a05pMUDSV2uzo5EwQ</t>
+          <t>spotify:album:4XQuWGLAH355kLVttbY8TT</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Indicud</t>
+          <t>KiD CuDi presents SATELLITE FLIGHT: The journey to Mother Moon</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>2013-04-12</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -14182,6 +16142,11 @@
       <c r="G393" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a8a0f65c9c3183cd5bdfa10d</t>
         </is>
       </c>
     </row>
@@ -14191,7 +16156,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>spotify:album:2NZDAfxf5cgIjRnoI1AdIT</t>
+          <t>spotify:album:262o5a05pMUDSV2uzo5EwQ</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14206,7 +16171,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2013-04-12</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -14217,6 +16182,11 @@
       <c r="G394" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b9ab5cc935d2327a7d2bc629</t>
         </is>
       </c>
     </row>
@@ -14226,22 +16196,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>spotify:album:08eM9GRdr5BCCHNqS3Wwud</t>
+          <t>spotify:album:2NZDAfxf5cgIjRnoI1AdIT</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Man On The Moon II: The Legend Of Mr. Rager</t>
+          <t>Indicud</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>2010-11-09</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -14252,6 +16222,11 @@
       <c r="G395" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f5556862e851548d4ca31a7c</t>
         </is>
       </c>
     </row>
@@ -14261,22 +16236,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>spotify:album:58GAgezAo9L6zMvfDxDkus</t>
+          <t>spotify:album:08eM9GRdr5BCCHNqS3Wwud</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Man On The Moon II: The Legend Of Mr. Rager (Explicit Version)</t>
+          <t>Man On The Moon II: The Legend Of Mr. Rager</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>2010-01-01</t>
+          <t>2010-11-09</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -14287,6 +16262,11 @@
       <c r="G396" t="inlineStr">
         <is>
           <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27359e842b6a3566a141f27f815</t>
         </is>
       </c>
     </row>
@@ -14296,32 +16276,37 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>spotify:album:74xlON1sCCChynzbgLlc7Q</t>
+          <t>spotify:album:58GAgezAo9L6zMvfDxDkus</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>It's Almost Dry: Pharrell vs. Ye</t>
+          <t>Man On The Moon II: The Legend Of Mr. Rager (Explicit Version)</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2010-01-01</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>spotify:artist:0ONHkAv9pCAFxb0zJwDNTy</t>
+          <t>spotify:artist:0fA0VVWsXO9YnASrzqfmYu</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Pusha T</t>
+          <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273474566aa8eb57c028f906148</t>
         </is>
       </c>
     </row>
@@ -14331,7 +16316,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>spotify:album:78y4oTK0gQ4DoEb0AaWT4S</t>
+          <t>spotify:album:74xlON1sCCChynzbgLlc7Q</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -14357,6 +16342,11 @@
       <c r="G398" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f826d49f1077a0fbf5c45b89</t>
         </is>
       </c>
     </row>
@@ -14366,12 +16356,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>spotify:album:1N3KJHdJWxK27Ze2AP2Vtk</t>
+          <t>spotify:album:78y4oTK0gQ4DoEb0AaWT4S</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>It's Almost Dry: Ye vs. Pharrell</t>
+          <t>It's Almost Dry: Pharrell vs. Ye</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -14392,6 +16382,11 @@
       <c r="G399" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b3f3f9e37a3dc40803af4c32</t>
         </is>
       </c>
     </row>
@@ -14401,7 +16396,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>spotify:album:3kpDO0F0l81dY8QjxGx2iG</t>
+          <t>spotify:album:1N3KJHdJWxK27Ze2AP2Vtk</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -14427,6 +16422,11 @@
       <c r="G400" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733846b8cf34ddf179677543b3</t>
         </is>
       </c>
     </row>
@@ -14436,7 +16436,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>spotify:album:0nyGoCFZjcTjB8Ygja05xF</t>
+          <t>spotify:album:3kpDO0F0l81dY8QjxGx2iG</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14462,6 +16462,11 @@
       <c r="G401" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735eaaec559363c3e0f5d096fc</t>
         </is>
       </c>
     </row>
@@ -14471,12 +16476,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>spotify:album:6o38CdD7CUlZDCFhjZYLDH</t>
+          <t>spotify:album:0nyGoCFZjcTjB8Ygja05xF</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>It's Almost Dry</t>
+          <t>It's Almost Dry: Ye vs. Pharrell</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -14486,7 +16491,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -14497,6 +16502,11 @@
       <c r="G402" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ad7c3d6d323295f3b06c8404</t>
         </is>
       </c>
     </row>
@@ -14506,7 +16516,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>spotify:album:05BjXw6IOVmGT5l49o6RET</t>
+          <t>spotify:album:6o38CdD7CUlZDCFhjZYLDH</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14532,6 +16542,11 @@
       <c r="G403" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e27dfef438562f2ecb98a642</t>
         </is>
       </c>
     </row>
@@ -14541,22 +16556,22 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>spotify:album:07bIdDDe3I3hhWpxU6tuBp</t>
+          <t>spotify:album:05BjXw6IOVmGT5l49o6RET</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>DAYTONA</t>
+          <t>It's Almost Dry</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>2018-05-25</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -14567,6 +16582,11 @@
       <c r="G404" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273eb2a25023ec4dc1581e04d6b</t>
         </is>
       </c>
     </row>
@@ -14576,7 +16596,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>spotify:album:7aJucmwVKKv0sNXOVsuOF6</t>
+          <t>spotify:album:07bIdDDe3I3hhWpxU6tuBp</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14602,6 +16622,11 @@
       <c r="G405" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273263555eebbe2b375593aa31e</t>
         </is>
       </c>
     </row>
@@ -14611,22 +16636,22 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>spotify:album:4OoNqHBpbgDoqtN3u1IdiC</t>
+          <t>spotify:album:7aJucmwVKKv0sNXOVsuOF6</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>King Push – Darkest Before Dawn: The Prelude</t>
+          <t>DAYTONA</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2018-05-25</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -14637,6 +16662,11 @@
       <c r="G406" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273fad443b2fdfcb1f55fa0fca5</t>
         </is>
       </c>
     </row>
@@ -14646,7 +16676,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>spotify:album:3uUBozvqtXx5W0yyStrj2b</t>
+          <t>spotify:album:4OoNqHBpbgDoqtN3u1IdiC</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14672,6 +16702,11 @@
       <c r="G407" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27316f96f33365e0ae909f75698</t>
         </is>
       </c>
     </row>
@@ -14681,22 +16716,22 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>spotify:album:1pHosDXkGsWTt1elzpDLzp</t>
+          <t>spotify:album:3uUBozvqtXx5W0yyStrj2b</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Wireless Live !</t>
+          <t>King Push – Darkest Before Dawn: The Prelude</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -14707,6 +16742,11 @@
       <c r="G408" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27351f611b632669f4d4087113c</t>
         </is>
       </c>
     </row>
@@ -14716,22 +16756,22 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>spotify:album:7e51fH5KpL87BCIVO068fh</t>
+          <t>spotify:album:1pHosDXkGsWTt1elzpDLzp</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Spotify Sessions</t>
+          <t>Wireless Live !</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>2014-06-10</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -14742,6 +16782,11 @@
       <c r="G409" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736537cd2b483c58e2bd36b4f5</t>
         </is>
       </c>
     </row>
@@ -14751,22 +16796,22 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>spotify:album:0LgwP5HQ7psvJAY2KSGPMH</t>
+          <t>spotify:album:7e51fH5KpL87BCIVO068fh</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>My Name Is My Name</t>
+          <t>Spotify Sessions</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2014-06-10</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -14777,6 +16822,11 @@
       <c r="G410" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e13dbfdd05b83b1ed435b458</t>
         </is>
       </c>
     </row>
@@ -14786,7 +16836,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>spotify:album:42oQv8fbI5CbeuAasf2ILC</t>
+          <t>spotify:album:0LgwP5HQ7psvJAY2KSGPMH</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14801,7 +16851,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>2013-10-31</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -14812,6 +16862,11 @@
       <c r="G411" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273afbed78b30c2024a866de072</t>
         </is>
       </c>
     </row>
@@ -14821,22 +16876,22 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>spotify:album:2GU6rwhz2k5Z6dGMLcjPkK</t>
+          <t>spotify:album:42oQv8fbI5CbeuAasf2ILC</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>The Animosity Of Caine</t>
+          <t>My Name Is My Name</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>2013-03-19</t>
+          <t>2013-10-31</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -14847,6 +16902,11 @@
       <c r="G412" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273861ecd2783b33bde98760364</t>
         </is>
       </c>
     </row>
@@ -14856,22 +16916,22 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>spotify:album:1BXlBg7Rc1qKMG06IJY9A4</t>
+          <t>spotify:album:2GU6rwhz2k5Z6dGMLcjPkK</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Still Ya Pusha</t>
+          <t>The Animosity Of Caine</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>2013-03-16</t>
+          <t>2013-03-19</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -14882,6 +16942,11 @@
       <c r="G413" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c3089e505d11e978f103e04c</t>
         </is>
       </c>
     </row>
@@ -14891,12 +16956,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>spotify:album:6ZS2NOEZ7XwlNlKWK2dzPM</t>
+          <t>spotify:album:1BXlBg7Rc1qKMG06IJY9A4</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Fear of God II: Let Us Pray</t>
+          <t>Still Ya Pusha</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -14906,7 +16971,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>2011-11-08</t>
+          <t>2013-03-16</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -14917,6 +16982,11 @@
       <c r="G414" t="inlineStr">
         <is>
           <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27394212667eb01381e27326cfe</t>
         </is>
       </c>
     </row>
@@ -14926,32 +16996,37 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>spotify:album:51heTwkSfb4Z5dRIgwU2bd</t>
+          <t>spotify:album:6ZS2NOEZ7XwlNlKWK2dzPM</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>SICK!</t>
+          <t>Fear of God II: Let Us Pray</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2011-11-08</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>spotify:artist:3A5tHz1SfngyOZM2gItYKu</t>
+          <t>spotify:artist:0ONHkAv9pCAFxb0zJwDNTy</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Earl Sweatshirt</t>
+          <t>Pusha T</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732749e1b9049f703e43ece068</t>
         </is>
       </c>
     </row>
@@ -14961,7 +17036,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>spotify:album:1uF1fJvyPDIcsD3LvW9Pl6</t>
+          <t>spotify:album:51heTwkSfb4Z5dRIgwU2bd</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14987,6 +17062,11 @@
       <c r="G416" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27337834cc82e604d7c124bb951</t>
         </is>
       </c>
     </row>
@@ -14996,22 +17076,22 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>spotify:album:1RWgm4YvRL0YN1iX1Mto7b</t>
+          <t>spotify:album:1uF1fJvyPDIcsD3LvW9Pl6</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>FEET OF CLAY (Deluxe)</t>
+          <t>SICK!</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>2020-07-24</t>
+          <t>2022-01-14</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -15022,6 +17102,11 @@
       <c r="G417" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e170637c055540f81eb02ded</t>
         </is>
       </c>
     </row>
@@ -15031,7 +17116,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>spotify:album:6WGHShoinYb9McJQwBTA6F</t>
+          <t>spotify:album:1RWgm4YvRL0YN1iX1Mto7b</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -15057,6 +17142,11 @@
       <c r="G418" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731feefce1c62dd359260b9fbd</t>
         </is>
       </c>
     </row>
@@ -15066,22 +17156,22 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>spotify:album:0N0EFoE8csbKxl5lxT1ylm</t>
+          <t>spotify:album:6WGHShoinYb9McJQwBTA6F</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>FEET OF CLAY</t>
+          <t>FEET OF CLAY (Deluxe)</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2020-07-24</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -15092,6 +17182,11 @@
       <c r="G419" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27382b4c7be0ee4be04bc502ea4</t>
         </is>
       </c>
     </row>
@@ -15101,7 +17196,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>spotify:album:5Vnx8L6miRZgI8eLAFthYY</t>
+          <t>spotify:album:0N0EFoE8csbKxl5lxT1ylm</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15127,6 +17222,11 @@
       <c r="G420" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731fab037626d29339dd28b74e</t>
         </is>
       </c>
     </row>
@@ -15136,22 +17236,22 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>spotify:album:66at85wgO2pu5CccvqUF6i</t>
+          <t>spotify:album:5Vnx8L6miRZgI8eLAFthYY</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Some Rap Songs</t>
+          <t>FEET OF CLAY</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>2018-11-30</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -15162,6 +17262,11 @@
       <c r="G421" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e10da08a94ae4fd5875c180b</t>
         </is>
       </c>
     </row>
@@ -15171,22 +17276,22 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>spotify:album:3wUv2IjD5hPrqlPakpczQa</t>
+          <t>spotify:album:66at85wgO2pu5CccvqUF6i</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>I Don't Like Shit, I Don't Go Outside: An Album by Earl Sweatshirt</t>
+          <t>Some Rap Songs</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>2015-03-23</t>
+          <t>2018-11-30</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -15197,6 +17302,11 @@
       <c r="G422" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732b688ab63b1a5f281cfdf451</t>
         </is>
       </c>
     </row>
@@ -15206,22 +17316,22 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>spotify:album:5vRfIDOPJHy3W2wHWbzLlE</t>
+          <t>spotify:album:3wUv2IjD5hPrqlPakpczQa</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Doris</t>
+          <t>I Don't Like Shit, I Don't Go Outside: An Album by Earl Sweatshirt</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>2013-08-16</t>
+          <t>2015-03-23</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -15232,6 +17342,11 @@
       <c r="G423" t="inlineStr">
         <is>
           <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27316ac34a19212811cf922ab71</t>
         </is>
       </c>
     </row>
@@ -15241,32 +17356,37 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>spotify:album:1GG6U2SSJPHO6XsFiBzxYv</t>
+          <t>spotify:album:5vRfIDOPJHy3W2wHWbzLlE</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>CALL ME IF YOU GET LOST: The Estate Sale</t>
+          <t>Doris</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2013-08-16</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>spotify:artist:4V8LLVI7PbaPR0K2TGSxFF</t>
+          <t>spotify:artist:3A5tHz1SfngyOZM2gItYKu</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Tyler, The Creator</t>
+          <t>Earl Sweatshirt</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27346f9bf1154c7205b0e8b1667</t>
         </is>
       </c>
     </row>
@@ -15276,22 +17396,22 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>spotify:album:45ba6QAtNrdv6Ke4MFOKk9</t>
+          <t>spotify:album:1GG6U2SSJPHO6XsFiBzxYv</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>CALL ME IF YOU GET LOST</t>
+          <t>CALL ME IF YOU GET LOST: The Estate Sale</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -15302,6 +17422,11 @@
       <c r="G425" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273aa95a399fd30fbb4f6f59fca</t>
         </is>
       </c>
     </row>
@@ -15311,22 +17436,22 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>spotify:album:5zi7WsKlIiUXv09tbGLKsE</t>
+          <t>spotify:album:45ba6QAtNrdv6Ke4MFOKk9</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>IGOR</t>
+          <t>CALL ME IF YOU GET LOST</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>2019-05-17</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -15337,6 +17462,11 @@
       <c r="G426" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273696b4e67423edd64784bfbb4</t>
         </is>
       </c>
     </row>
@@ -15346,22 +17476,22 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>spotify:album:2nkto6YNI4rUYTLqEwWJ3o</t>
+          <t>spotify:album:5zi7WsKlIiUXv09tbGLKsE</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Flower Boy</t>
+          <t>IGOR</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>2017-07-21</t>
+          <t>2019-05-17</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -15372,6 +17502,11 @@
       <c r="G427" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737005885df706891a3c182a57</t>
         </is>
       </c>
     </row>
@@ -15381,22 +17516,22 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>spotify:album:621OhgnZJ7Pz8iUazct1In</t>
+          <t>spotify:album:2nkto6YNI4rUYTLqEwWJ3o</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Cherry Bomb</t>
+          <t>Flower Boy</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>2015-04-13</t>
+          <t>2017-07-21</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -15407,6 +17542,11 @@
       <c r="G428" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738940ac99f49e44f59e6f7fb3</t>
         </is>
       </c>
     </row>
@@ -15416,17 +17556,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>spotify:album:5V3Chnpno9oTI7JSPXKUf3</t>
+          <t>spotify:album:621OhgnZJ7Pz8iUazct1In</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Cherry Bomb + Instrumentals</t>
+          <t>Cherry Bomb</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -15442,6 +17582,11 @@
       <c r="G429" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e4bf0d3d9e0224a30ca5f665</t>
         </is>
       </c>
     </row>
@@ -15451,22 +17596,22 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>spotify:album:6hSjwUPL9jSBtZPgyFWfjI</t>
+          <t>spotify:album:5V3Chnpno9oTI7JSPXKUf3</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Live At Splash!</t>
+          <t>Cherry Bomb + Instrumentals</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>2013-09-02</t>
+          <t>2015-04-13</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -15477,6 +17622,11 @@
       <c r="G430" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27337906edcfbfde42b203097f2</t>
         </is>
       </c>
     </row>
@@ -15486,22 +17636,22 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>spotify:album:40QTqOBBxCEIQlLNdSjFQB</t>
+          <t>spotify:album:6hSjwUPL9jSBtZPgyFWfjI</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Live At Splash!</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2013-09-02</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -15512,6 +17662,11 @@
       <c r="G431" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27334b5ec384aece41bb4e1ec65</t>
         </is>
       </c>
     </row>
@@ -15521,17 +17676,17 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>spotify:album:4jEKedq9rWPV9OXuMkrZCa</t>
+          <t>spotify:album:40QTqOBBxCEIQlLNdSjFQB</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Wolf + Instrumentals</t>
+          <t>Wolf</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -15547,6 +17702,11 @@
       <c r="G432" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27322007a4aa8a55fe7b1de5632</t>
         </is>
       </c>
     </row>
@@ -15556,22 +17716,22 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>spotify:album:3CxknRPQLbOJRwQrNekNyU</t>
+          <t>spotify:album:4jEKedq9rWPV9OXuMkrZCa</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Goblin</t>
+          <t>Wolf + Instrumentals</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>2011-05-09</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -15582,6 +17742,11 @@
       <c r="G433" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ecdf37c0fb7d35f589e2fb4d</t>
         </is>
       </c>
     </row>
@@ -15591,7 +17756,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>spotify:album:5dbCm8qaCdWnNdVyi3urUO</t>
+          <t>spotify:album:3CxknRPQLbOJRwQrNekNyU</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15617,6 +17782,11 @@
       <c r="G434" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735ea9799a88c0760ec03ac6b8</t>
         </is>
       </c>
     </row>
@@ -15626,7 +17796,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>spotify:album:3scNeGKz8kAMDrYG5U971b</t>
+          <t>spotify:album:5dbCm8qaCdWnNdVyi3urUO</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15636,7 +17806,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -15652,6 +17822,11 @@
       <c r="G435" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27328ae9a159d24cb0ab2552712</t>
         </is>
       </c>
     </row>
@@ -15661,7 +17836,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>spotify:album:5nozPsVrPay3O2qGOd1pZg</t>
+          <t>spotify:album:3scNeGKz8kAMDrYG5U971b</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15687,6 +17862,11 @@
       <c r="G436" t="inlineStr">
         <is>
           <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d8c1b5fc9a7b58bd3a1c0a7c</t>
         </is>
       </c>
     </row>
@@ -15696,32 +17876,37 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>spotify:album:5iJvtKGTQRIo2KL42xS7JX</t>
+          <t>spotify:album:5nozPsVrPay3O2qGOd1pZg</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Detroit 2 (Deluxe)</t>
+          <t>Goblin</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2011-05-09</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>spotify:artist:0c173mlxpT3dSFRgMO8XPh</t>
+          <t>spotify:artist:4V8LLVI7PbaPR0K2TGSxFF</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Big Sean</t>
+          <t>Tyler, The Creator</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273619b3ed81cc266693f170c7c</t>
         </is>
       </c>
     </row>
@@ -15731,7 +17916,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>spotify:album:3f5cJRkIbUzC4rZ5cesGts</t>
+          <t>spotify:album:5iJvtKGTQRIo2KL42xS7JX</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15757,6 +17942,11 @@
       <c r="G438" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736bc7f20a88efc5cc056e1195</t>
         </is>
       </c>
     </row>
@@ -15766,22 +17956,22 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>spotify:album:4XXX0W3F9QNxtkofgUbxaj</t>
+          <t>spotify:album:3f5cJRkIbUzC4rZ5cesGts</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Detroit 2 (Deluxe)</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>2022-09-05</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -15792,6 +17982,11 @@
       <c r="G439" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27307a809081641ee80cee2e9d1</t>
         </is>
       </c>
     </row>
@@ -15801,7 +17996,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>spotify:album:7F3Lm9RWfJhdX1LKGMuSsS</t>
+          <t>spotify:album:4XXX0W3F9QNxtkofgUbxaj</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15827,6 +18022,11 @@
       <c r="G440" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736bc8f07189843c966b3b95bc</t>
         </is>
       </c>
     </row>
@@ -15836,22 +18036,22 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>spotify:album:2wsEKWXcUpVNR2AKprorV3</t>
+          <t>spotify:album:7F3Lm9RWfJhdX1LKGMuSsS</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Finally Famous (10th Anniversary Deluxe Edition Remixed and Remastered)</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2022-09-05</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -15862,6 +18062,11 @@
       <c r="G441" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732bcef8731ee4d38f01b992c8</t>
         </is>
       </c>
     </row>
@@ -15871,7 +18076,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>spotify:album:6z77KlXlWHSwM7s1YPJsqa</t>
+          <t>spotify:album:2wsEKWXcUpVNR2AKprorV3</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15897,6 +18102,11 @@
       <c r="G442" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2734160f3e11ed57e0dba4f4c80</t>
         </is>
       </c>
     </row>
@@ -15906,22 +18116,22 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>spotify:album:6slkiHeFK3wW2D1mao0TX3</t>
+          <t>spotify:album:6z77KlXlWHSwM7s1YPJsqa</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Detroit 2</t>
+          <t>Finally Famous (10th Anniversary Deluxe Edition Remixed and Remastered)</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -15932,6 +18142,11 @@
       <c r="G443" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b3afe430fdcef1b17fedd740</t>
         </is>
       </c>
     </row>
@@ -15941,7 +18156,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>spotify:album:3bIoQgLIRiIdwhL9z8DFvg</t>
+          <t>spotify:album:6slkiHeFK3wW2D1mao0TX3</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15967,6 +18182,11 @@
       <c r="G444" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b1b3fdd23be4c158d4d2c32f</t>
         </is>
       </c>
     </row>
@@ -15976,32 +18196,37 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>spotify:album:0llyIxX3nDC3hobbGibVZl</t>
+          <t>spotify:album:3bIoQgLIRiIdwhL9z8DFvg</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Double Or Nothing (&amp; Metro Boomin)</t>
+          <t>Detroit 2</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>2017-12-08</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>spotify:artist:0c173mlxpT3dSFRgMO8XPh, 0</t>
+          <t>spotify:artist:0c173mlxpT3dSFRgMO8XPh</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>Big Sean, Metro Boomin</t>
+          <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735dcdf703e2d52718dbacf428</t>
         </is>
       </c>
     </row>
@@ -16011,7 +18236,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>spotify:album:2jGYXB8sZathOM5zsQWI7J</t>
+          <t>spotify:album:0llyIxX3nDC3hobbGibVZl</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -16026,7 +18251,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>2017-12-07</t>
+          <t>2017-12-08</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -16037,6 +18262,11 @@
       <c r="G446" t="inlineStr">
         <is>
           <t>Big Sean, Metro Boomin</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a921ed2b886e7d154e88d37b</t>
         </is>
       </c>
     </row>
@@ -16046,32 +18276,37 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>spotify:album:0XAIjjN5qxViVS0Y5fYkar</t>
+          <t>spotify:album:2jGYXB8sZathOM5zsQWI7J</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>I Decided.</t>
+          <t>Double Or Nothing (&amp; Metro Boomin)</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>2017-02-03</t>
+          <t>2017-12-07</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>spotify:artist:0c173mlxpT3dSFRgMO8XPh</t>
+          <t>spotify:artist:0c173mlxpT3dSFRgMO8XPh, 0</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Big Sean</t>
+          <t>Big Sean, Metro Boomin</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273db5f4f6e284794a62df30720</t>
         </is>
       </c>
     </row>
@@ -16081,7 +18316,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>spotify:album:52uRzLGvgY17saKI7khBsU</t>
+          <t>spotify:album:0XAIjjN5qxViVS0Y5fYkar</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -16096,7 +18331,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>2017-02-02</t>
+          <t>2017-02-03</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -16107,6 +18342,11 @@
       <c r="G448" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e572359074e5da958a922987</t>
         </is>
       </c>
     </row>
@@ -16116,22 +18356,22 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>spotify:album:4Nlbt2EuXedr6UqaeXEI4c</t>
+          <t>spotify:album:52uRzLGvgY17saKI7khBsU</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Dark Sky Paradise (Deluxe)</t>
+          <t>I Decided.</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>2015-02-24</t>
+          <t>2017-02-02</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -16142,6 +18382,11 @@
       <c r="G449" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273c0814e64e0feb0f95def5b8a</t>
         </is>
       </c>
     </row>
@@ -16151,7 +18396,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>spotify:album:6NVRGg3dKALTNwHqAqdYBf</t>
+          <t>spotify:album:4Nlbt2EuXedr6UqaeXEI4c</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -16177,6 +18422,11 @@
       <c r="G450" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f6a63a9dbf0f1c388db690fc</t>
         </is>
       </c>
     </row>
@@ -16186,17 +18436,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>spotify:album:1j2x7FJXTgUT0X5hZ8TDXE</t>
+          <t>spotify:album:6NVRGg3dKALTNwHqAqdYBf</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Dark Sky Paradise</t>
+          <t>Dark Sky Paradise (Deluxe)</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -16212,6 +18462,11 @@
       <c r="G451" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273da713b5c77803f95db737cb9</t>
         </is>
       </c>
     </row>
@@ -16221,7 +18476,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>spotify:album:2A7c79XQNG7Mai20YugpAF</t>
+          <t>spotify:album:1j2x7FJXTgUT0X5hZ8TDXE</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -16247,6 +18502,11 @@
       <c r="G452" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27350192d5f728fea13fb3af203</t>
         </is>
       </c>
     </row>
@@ -16256,22 +18516,22 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>spotify:album:4TQQatT1Z2q4iIPcja4zGB</t>
+          <t>spotify:album:2A7c79XQNG7Mai20YugpAF</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Good Music Chicago</t>
+          <t>Dark Sky Paradise</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>2013-02-19</t>
+          <t>2015-02-24</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -16282,6 +18542,11 @@
       <c r="G453" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bbff549d18137067135ffd8f</t>
         </is>
       </c>
     </row>
@@ -16291,22 +18556,22 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>spotify:album:2kSTssn90EgrYWNlWZJ9r4</t>
+          <t>spotify:album:4TQQatT1Z2q4iIPcja4zGB</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Hall Of Fame (Deluxe)</t>
+          <t>Good Music Chicago</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2013-02-19</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -16317,6 +18582,11 @@
       <c r="G454" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731e5fa92b17dd02adf93ec7bd</t>
         </is>
       </c>
     </row>
@@ -16326,7 +18596,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>spotify:album:5RlT8X7XGGLKUhoimrDl54</t>
+          <t>spotify:album:2kSTssn90EgrYWNlWZJ9r4</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -16352,6 +18622,11 @@
       <c r="G455" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27373077b16706dbd3dca4b6948</t>
         </is>
       </c>
     </row>
@@ -16361,7 +18636,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>spotify:album:6YxrEdw7cMY72Y1nLOkl3n</t>
+          <t>spotify:album:5RlT8X7XGGLKUhoimrDl54</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -16387,6 +18662,11 @@
       <c r="G456" t="inlineStr">
         <is>
           <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273d126daad8e8479dbad94610e</t>
         </is>
       </c>
     </row>
@@ -16396,32 +18676,37 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>spotify:album:25Uddgldy3slnChqKqHsIM</t>
+          <t>spotify:album:6YxrEdw7cMY72Y1nLOkl3n</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>AftërLyfe</t>
+          <t>Hall Of Fame (Deluxe)</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>spotify:artist:3qiHUAX7zY4Qnjx8TNUzVx</t>
+          <t>spotify:artist:0c173mlxpT3dSFRgMO8XPh</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Yeat</t>
+          <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27337c422f4dc3533610fbb9547</t>
         </is>
       </c>
     </row>
@@ -16431,7 +18716,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>spotify:album:29d8dGxvF4gdkPwZI4f5Ub</t>
+          <t>spotify:album:25Uddgldy3slnChqKqHsIM</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -16457,6 +18742,11 @@
       <c r="G458" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2733f560650c583444498c214f0</t>
         </is>
       </c>
     </row>
@@ -16466,22 +18756,22 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>spotify:album:6Xo2PDEoQKzCndIbks2kvu</t>
+          <t>spotify:album:29d8dGxvF4gdkPwZI4f5Ub</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Lyfë</t>
+          <t>AftërLyfe</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -16492,6 +18782,11 @@
       <c r="G459" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27378f366f7d63555f055f07c60</t>
         </is>
       </c>
     </row>
@@ -16501,7 +18796,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>spotify:album:4t1a5i9dBXSbEyJQn9qBIj</t>
+          <t>spotify:album:6Xo2PDEoQKzCndIbks2kvu</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16516,7 +18811,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -16527,6 +18822,11 @@
       <c r="G460" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737aee5b36a3a60ca926bc429b</t>
         </is>
       </c>
     </row>
@@ -16536,22 +18836,22 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>spotify:album:0345WPzPBSeISh2IpIQWxT</t>
+          <t>spotify:album:4t1a5i9dBXSbEyJQn9qBIj</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2 Alivë (Geëk Pack)</t>
+          <t>Lyfë</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -16562,6 +18862,11 @@
       <c r="G461" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273135cdbe0b0b21d7a76c4cad6</t>
         </is>
       </c>
     </row>
@@ -16571,7 +18876,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>spotify:album:1Kp60H2doJxXUsrFZShSlJ</t>
+          <t>spotify:album:0345WPzPBSeISh2IpIQWxT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16586,7 +18891,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -16597,6 +18902,11 @@
       <c r="G462" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273dac51d9a5701fbfb222f2f06</t>
         </is>
       </c>
     </row>
@@ -16606,22 +18916,22 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>spotify:album:0d1BFY8z15vye3KjtLvF3u</t>
+          <t>spotify:album:1Kp60H2doJxXUsrFZShSlJ</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2 Alivë</t>
+          <t>2 Alivë (Geëk Pack)</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -16632,6 +18942,11 @@
       <c r="G463" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731781914c6cce465cd8ed2d00</t>
         </is>
       </c>
     </row>
@@ -16641,7 +18956,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>spotify:album:0gl3KnpYmRdhuPxP0txEz0</t>
+          <t>spotify:album:0d1BFY8z15vye3KjtLvF3u</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16656,7 +18971,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>2022-02-17</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -16667,6 +18982,11 @@
       <c r="G464" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27372b69f1f356613717909d6db</t>
         </is>
       </c>
     </row>
@@ -16676,22 +18996,22 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>spotify:album:1x55Z0fYARLdeJVjG2UESs</t>
+          <t>spotify:album:0gl3KnpYmRdhuPxP0txEz0</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Up 2 Më</t>
+          <t>2 Alivë</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2022-02-17</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -16702,6 +19022,11 @@
       <c r="G465" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739772d17b139847aca59a32be</t>
         </is>
       </c>
     </row>
@@ -16711,7 +19036,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>spotify:album:3ZKEPJwhLcpUfYPMIsC4PF</t>
+          <t>spotify:album:1x55Z0fYARLdeJVjG2UESs</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16737,6 +19062,11 @@
       <c r="G466" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b20fdc3ee4c262693cfdf005</t>
         </is>
       </c>
     </row>
@@ -16746,22 +19076,22 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>spotify:album:05QOSu1AEcQxM5jvZFuann</t>
+          <t>spotify:album:3ZKEPJwhLcpUfYPMIsC4PF</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>4L</t>
+          <t>Up 2 Më</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -16772,6 +19102,11 @@
       <c r="G467" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737f18c4658caa4a3d47f2d978</t>
         </is>
       </c>
     </row>
@@ -16781,7 +19116,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>spotify:album:26LsyqIbRQJzO1TPE5icl2</t>
+          <t>spotify:album:05QOSu1AEcQxM5jvZFuann</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16807,6 +19142,11 @@
       <c r="G468" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27387b1f578fa40d6ac504b57d7</t>
         </is>
       </c>
     </row>
@@ -16816,22 +19156,22 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>spotify:album:1n3e9mGQUpv1UXOxMre4My</t>
+          <t>spotify:album:26LsyqIbRQJzO1TPE5icl2</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Alivë</t>
+          <t>4L</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -16842,6 +19182,11 @@
       <c r="G469" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732a2ca1ad79dd181c31e08c81</t>
         </is>
       </c>
     </row>
@@ -16851,7 +19196,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>spotify:album:2VLfVJIWbfaMsFQNfS11ad</t>
+          <t>spotify:album:1n3e9mGQUpv1UXOxMre4My</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16877,6 +19222,11 @@
       <c r="G470" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738bec48cd14271058a813467d</t>
         </is>
       </c>
     </row>
@@ -16886,22 +19236,22 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>spotify:album:2QcYIzmkEf1fdsOgfANuwN</t>
+          <t>spotify:album:2VLfVJIWbfaMsFQNfS11ad</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Wake Up Call</t>
+          <t>Alivë</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>2019-01-09</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -16912,6 +19262,11 @@
       <c r="G471" t="inlineStr">
         <is>
           <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273808dc04afe9dd0b1788fe5d2</t>
         </is>
       </c>
     </row>
@@ -16921,32 +19276,37 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>spotify:album:2Q2TRdT994vTzGE3Grmmht</t>
+          <t>spotify:album:2QcYIzmkEf1fdsOgfANuwN</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Love Sick (Deluxe)</t>
+          <t>Wake Up Call</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2019-01-09</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>spotify:artist:4Gso3d4CscCijv0lmajZWs</t>
+          <t>spotify:artist:3qiHUAX7zY4Qnjx8TNUzVx</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>Don Toliver</t>
+          <t>Yeat</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273365f5ef464e63fa4d52341d0</t>
         </is>
       </c>
     </row>
@@ -16956,22 +19316,22 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>spotify:album:26z5llzd194mcCZHADWd6k</t>
+          <t>spotify:album:2Q2TRdT994vTzGE3Grmmht</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Love Sick</t>
+          <t>Love Sick (Deluxe)</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -16982,6 +19342,11 @@
       <c r="G473" t="inlineStr">
         <is>
           <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f5e27c2aa0b110c2b6611577</t>
         </is>
       </c>
     </row>
@@ -16991,7 +19356,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>spotify:album:6Xnrf8JvckhoADFcePUNyq</t>
+          <t>spotify:album:26z5llzd194mcCZHADWd6k</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -17006,7 +19371,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -17017,6 +19382,11 @@
       <c r="G474" t="inlineStr">
         <is>
           <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273feeff698e6090e6b02f21ec0</t>
         </is>
       </c>
     </row>
@@ -17026,12 +19396,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>spotify:album:2WmJ5wp5wKBlIJE6FDAIBJ</t>
+          <t>spotify:album:6Xnrf8JvckhoADFcePUNyq</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Life of a DON</t>
+          <t>Love Sick</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -17041,7 +19411,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -17052,6 +19422,11 @@
       <c r="G475" t="inlineStr">
         <is>
           <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2738ce3321b114cb864f5240e6c</t>
         </is>
       </c>
     </row>
@@ -17061,7 +19436,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>spotify:album:5jV74gyNk85DPEXuL9rfOt</t>
+          <t>spotify:album:2WmJ5wp5wKBlIJE6FDAIBJ</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -17076,7 +19451,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>2021-10-07</t>
+          <t>2021-10-08</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -17087,6 +19462,11 @@
       <c r="G476" t="inlineStr">
         <is>
           <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ab738b25b86bf02f0346c53d</t>
         </is>
       </c>
     </row>
@@ -17096,22 +19476,22 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>spotify:album:69RuKg34VBwhfiGuMpXUWQ</t>
+          <t>spotify:album:5jV74gyNk85DPEXuL9rfOt</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Heaven Or Hell (CHOPNOTSLOP REMIX)</t>
+          <t>Life of a DON</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2021-10-07</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -17122,6 +19502,11 @@
       <c r="G477" t="inlineStr">
         <is>
           <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731e1e2ec8b083bb8d103aa011</t>
         </is>
       </c>
     </row>
@@ -17131,12 +19516,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>spotify:album:7z4GhRfLqfSkqrj5F3Yt2B</t>
+          <t>spotify:album:69RuKg34VBwhfiGuMpXUWQ</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Heaven Or Hell</t>
+          <t>Heaven Or Hell (CHOPNOTSLOP REMIX)</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -17146,7 +19531,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -17157,6 +19542,11 @@
       <c r="G478" t="inlineStr">
         <is>
           <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737978515522c548461e16cc61</t>
         </is>
       </c>
     </row>
@@ -17166,22 +19556,22 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>spotify:album:2VubyYz7rZ5Z68IJ3CjwNf</t>
+          <t>spotify:album:7z4GhRfLqfSkqrj5F3Yt2B</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Donny Womack</t>
+          <t>Heaven Or Hell</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>2018-08-02</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -17192,6 +19582,11 @@
       <c r="G479" t="inlineStr">
         <is>
           <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27345190a074bef3e8ce868b60c</t>
         </is>
       </c>
     </row>
@@ -17201,32 +19596,37 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>spotify:album:2actLFtpiiBZm1z0TUzMx2</t>
+          <t>spotify:album:2VubyYz7rZ5Z68IJ3CjwNf</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Culture III (Deluxe)</t>
+          <t>Donny Womack</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2018-08-02</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
+          <t>spotify:artist:4Gso3d4CscCijv0lmajZWs</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>Migos</t>
+          <t>Don Toliver</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731c00775c64af66b04a8ece58</t>
         </is>
       </c>
     </row>
@@ -17236,17 +19636,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>spotify:album:3uyOwJu4r3yroAkFywNFM3</t>
+          <t>spotify:album:2actLFtpiiBZm1z0TUzMx2</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Culture III</t>
+          <t>Culture III (Deluxe)</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -17262,6 +19662,11 @@
       <c r="G481" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273da9f9ce257d0f654279d6022</t>
         </is>
       </c>
     </row>
@@ -17271,7 +19676,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>spotify:album:1lteSAPdfkjYq3lc494VXG</t>
+          <t>spotify:album:3uyOwJu4r3yroAkFywNFM3</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -17286,7 +19691,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -17297,6 +19702,11 @@
       <c r="G482" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273f89d00155b6a066650e5460d</t>
         </is>
       </c>
     </row>
@@ -17306,22 +19716,22 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>spotify:album:7fd7SEK25VS3gJAUgSwL6y</t>
+          <t>spotify:album:1lteSAPdfkjYq3lc494VXG</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Culture II</t>
+          <t>Culture III</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>2018-01-26</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -17332,6 +19742,11 @@
       <c r="G483" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27317dd1257a14cb98d6ae491be</t>
         </is>
       </c>
     </row>
@@ -17341,7 +19756,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>spotify:album:4BMSnNiBIA2xSAKgnBCjsK</t>
+          <t>spotify:album:7fd7SEK25VS3gJAUgSwL6y</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -17367,6 +19782,11 @@
       <c r="G484" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739c188c494d8bfaf895411890</t>
         </is>
       </c>
     </row>
@@ -17376,22 +19796,22 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>spotify:album:4JTOxuvM2jcSqAvEZtZsOO</t>
+          <t>spotify:album:4BMSnNiBIA2xSAKgnBCjsK</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Culture II</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>2017-01-27</t>
+          <t>2018-01-26</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -17402,6 +19822,11 @@
       <c r="G485" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27359971e2744d99b8b694a4739</t>
         </is>
       </c>
     </row>
@@ -17411,7 +19836,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>spotify:album:1Qdjh35D60NBVOfIVUAsYJ</t>
+          <t>spotify:album:4JTOxuvM2jcSqAvEZtZsOO</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -17437,6 +19862,11 @@
       <c r="G486" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2736275aeac316378b0dd4f31fd</t>
         </is>
       </c>
     </row>
@@ -17446,22 +19876,22 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>spotify:album:7Hd1Gqx8xFRAnQOLHAZxn3</t>
+          <t>spotify:album:1Qdjh35D60NBVOfIVUAsYJ</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>YRN 2 (Young Rich Niggas 2)</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>2016-10-14</t>
+          <t>2017-01-27</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -17472,6 +19902,11 @@
       <c r="G487" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730416343ff9e1acac4ab2bcc3</t>
         </is>
       </c>
     </row>
@@ -17481,32 +19916,37 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>spotify:album:4Rj8KShBw1IrBW3A7wsEmi</t>
+          <t>spotify:album:7Hd1Gqx8xFRAnQOLHAZxn3</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>MigoThuggin</t>
+          <t>YRN 2 (Young Rich Niggas 2)</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2016-10-14</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG, spotify:artist:50co4Is1HCEo8bhOyUWKpn</t>
+          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>Migos, Young Thug</t>
+          <t>Migos</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b462ad328dc32384e92df508</t>
         </is>
       </c>
     </row>
@@ -17516,32 +19956,37 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>spotify:album:7qLM7egb40QyDHa3CknQqs</t>
+          <t>spotify:album:4Rj8KShBw1IrBW3A7wsEmi</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Rich Shooters</t>
+          <t>MigoThuggin</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>2015-11-01</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
+          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG, spotify:artist:50co4Is1HCEo8bhOyUWKpn</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>Migos</t>
+          <t>Migos, Young Thug</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bca9fa10bf963415cf05f768</t>
         </is>
       </c>
     </row>
@@ -17551,22 +19996,22 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>spotify:album:4R8gIy454OjbyRspuPu5A7</t>
+          <t>spotify:album:7qLM7egb40QyDHa3CknQqs</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Currency</t>
+          <t>Rich Shooters</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>2015-09-02</t>
+          <t>2015-11-01</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -17577,6 +20022,11 @@
       <c r="G490" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e837972e128cde0623176127</t>
         </is>
       </c>
     </row>
@@ -17586,22 +20036,22 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>spotify:album:34DPoSeDW5fw2QW9Hl5Y92</t>
+          <t>spotify:album:4R8gIy454OjbyRspuPu5A7</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Yung Rich Nation</t>
+          <t>Currency</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>2015-07-31</t>
+          <t>2015-09-02</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -17612,6 +20062,11 @@
       <c r="G491" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27346767e03e155e95b24c6a88b</t>
         </is>
       </c>
     </row>
@@ -17621,7 +20076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>spotify:album:2qIwpDF2MhVlZy3nzr2GWj</t>
+          <t>spotify:album:34DPoSeDW5fw2QW9Hl5Y92</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17647,6 +20102,11 @@
       <c r="G492" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e748816bc030ae86a975f3bb</t>
         </is>
       </c>
     </row>
@@ -17656,32 +20116,37 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>spotify:album:36jv2wndXsaiUghNs9beLv</t>
+          <t>spotify:album:2qIwpDF2MhVlZy3nzr2GWj</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>The Green Album</t>
+          <t>Yung Rich Nation</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2015-07-31</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>0, spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
+          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>Gucci Mane, Migos</t>
+          <t>Migos</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a39c9d2229ee238cc6f242fc</t>
         </is>
       </c>
     </row>
@@ -17691,12 +20156,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>spotify:album:4geeDYVC92n0vnBdeNzWcT</t>
+          <t>spotify:album:36jv2wndXsaiUghNs9beLv</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Green Album</t>
+          <t>The Green Album</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -17717,6 +20182,11 @@
       <c r="G494" t="inlineStr">
         <is>
           <t>Gucci Mane, Migos</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273a46c66ca73fb2e21b982fcdd</t>
         </is>
       </c>
     </row>
@@ -17726,32 +20196,37 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>spotify:album:0ty5iwaiepWlGq8g0DKtEy</t>
+          <t>spotify:album:4geeDYVC92n0vnBdeNzWcT</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Rich Ni**a Timeline</t>
+          <t>Green Album</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>2014-11-10</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
+          <t>0, spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>Migos</t>
+          <t>Gucci Mane, Migos</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735c6a8c85a5e1b1082899eceb</t>
         </is>
       </c>
     </row>
@@ -17761,7 +20236,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>spotify:album:0lfwxoyCgsqxo6GGBRQc6j</t>
+          <t>spotify:album:0ty5iwaiepWlGq8g0DKtEy</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17776,7 +20251,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>2014-11-05</t>
+          <t>2014-11-10</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -17787,6 +20262,11 @@
       <c r="G496" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273bec8756cdd0e0e1ec4de9337</t>
         </is>
       </c>
     </row>
@@ -17796,22 +20276,22 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>spotify:album:1NIzKm1DqvComMoEF1FZPQ</t>
+          <t>spotify:album:0lfwxoyCgsqxo6GGBRQc6j</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>No Label II</t>
+          <t>Rich Ni**a Timeline</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>2014-02-25</t>
+          <t>2014-11-05</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -17822,6 +20302,11 @@
       <c r="G497" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273b093f061da31a2c81e76ef40</t>
         </is>
       </c>
     </row>
@@ -17831,12 +20316,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>spotify:album:7J6fSYFHb5Kgouc4Nr8SZg</t>
+          <t>spotify:album:1NIzKm1DqvComMoEF1FZPQ</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>No Label</t>
+          <t>No Label II</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -17846,7 +20331,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>2013-07-30</t>
+          <t>2014-02-25</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -17857,6 +20342,11 @@
       <c r="G498" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735c4d2b8429e7bbcda34e14de</t>
         </is>
       </c>
     </row>
@@ -17866,17 +20356,17 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>spotify:album:70HXQp5RAjM37JHBuvL8Dg</t>
+          <t>spotify:album:7J6fSYFHb5Kgouc4Nr8SZg</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Juug Season</t>
+          <t>No Label</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -17892,6 +20382,11 @@
       <c r="G499" t="inlineStr">
         <is>
           <t>Migos</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b27302e7b8dbb5a0c9ace5117456</t>
         </is>
       </c>
     </row>
@@ -17901,32 +20396,37 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>spotify:album:2rmPnKM3T64J7Xz5TEyR0c</t>
+          <t>spotify:album:70HXQp5RAjM37JHBuvL8Dg</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Cocodrillo Turbo</t>
+          <t>Juug Season</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2013-07-30</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ</t>
+          <t>spotify:artist:6oMuImdp5ZcFhWP0ESe6mG</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>Action Bronson</t>
+          <t>Migos</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731681fd407252f04c1d3af8e2</t>
         </is>
       </c>
     </row>
@@ -17936,22 +20436,22 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>spotify:album:1ZbgQbpmCbLX2RTYSAIG6k</t>
+          <t>spotify:album:2rmPnKM3T64J7Xz5TEyR0c</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Only For Dolphins</t>
+          <t>Cocodrillo Turbo</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -17962,6 +20462,11 @@
       <c r="G501" t="inlineStr">
         <is>
           <t>Action Bronson</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2732a3e3c2cfad3f1f4e3ee0004</t>
         </is>
       </c>
     </row>
@@ -17971,32 +20476,37 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>spotify:album:3BPX4x5EQOd9vzpPC2rMrm</t>
+          <t>spotify:album:1ZbgQbpmCbLX2RTYSAIG6k</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Lamb Over Rice</t>
+          <t>Only For Dolphins</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ, 0</t>
+          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>Action Bronson, The Alchemist</t>
+          <t>Action Bronson</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e8e6cc55058bbd882aa6ef5a</t>
         </is>
       </c>
     </row>
@@ -18006,32 +20516,37 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>spotify:album:1RpE0cvRLrWxtaGeUjWqgV</t>
+          <t>spotify:album:3BPX4x5EQOd9vzpPC2rMrm</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>White Bronco</t>
+          <t>Lamb Over Rice</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ</t>
+          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ, 0</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>Action Bronson</t>
+          <t>Action Bronson, The Alchemist</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2731680695dc187004fe5627b04</t>
         </is>
       </c>
     </row>
@@ -18041,22 +20556,22 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>spotify:album:0N3HnJ7Jw1VrfO5TnbNWEA</t>
+          <t>spotify:album:1RpE0cvRLrWxtaGeUjWqgV</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Blue Chips 7000</t>
+          <t>White Bronco</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>2017-08-25</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -18067,6 +20582,11 @@
       <c r="G504" t="inlineStr">
         <is>
           <t>Action Bronson</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2739be3f49b9c63dcf05cf5e4db</t>
         </is>
       </c>
     </row>
@@ -18076,12 +20596,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>spotify:album:7ijgeLAW3W3vZ9jf6tozFq</t>
+          <t>spotify:album:0N3HnJ7Jw1VrfO5TnbNWEA</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Mr. Wonderful</t>
+          <t>Blue Chips 7000</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -18091,7 +20611,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>2015-03-23</t>
+          <t>2017-08-25</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -18102,6 +20622,11 @@
       <c r="G505" t="inlineStr">
         <is>
           <t>Action Bronson</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273e1b44f2f2eb1501a95359259</t>
         </is>
       </c>
     </row>
@@ -18111,7 +20636,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>spotify:album:70ZBzT0CMjjFQ1bMvPdLjH</t>
+          <t>spotify:album:7ijgeLAW3W3vZ9jf6tozFq</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -18137,6 +20662,11 @@
       <c r="G506" t="inlineStr">
         <is>
           <t>Action Bronson</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2730949c5a5ad8bec4bebacc47d</t>
         </is>
       </c>
     </row>
@@ -18146,22 +20676,22 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>spotify:album:3BClCxsYrpmoL7U1gVFvWa</t>
+          <t>spotify:album:70ZBzT0CMjjFQ1bMvPdLjH</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>SAAAB Stories Produced by Harry Fraud</t>
+          <t>Mr. Wonderful</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>2013-06-11</t>
+          <t>2015-03-23</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -18172,6 +20702,11 @@
       <c r="G507" t="inlineStr">
         <is>
           <t>Action Bronson</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2737baff4330200ac863f367709</t>
         </is>
       </c>
     </row>
@@ -18181,32 +20716,37 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>spotify:album:1hNdA7lmK8KNVq99faGmbM</t>
+          <t>spotify:album:3BClCxsYrpmoL7U1gVFvWa</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Well Done</t>
+          <t>SAAAB Stories Produced by Harry Fraud</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2013-06-11</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ, 0</t>
+          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>Action Bronson, Statik Selektah</t>
+          <t>Action Bronson</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273cf7b883ff5d6992874edc90a</t>
         </is>
       </c>
     </row>
@@ -18216,32 +20756,77 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
+          <t>spotify:album:1hNdA7lmK8KNVq99faGmbM</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Well Done</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>2011-11-22</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ, 0</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Action Bronson, Statik Selektah</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b273ba2d03946c00132ab79caa44</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
           <t>spotify:album:7zAtwFIvAtyqJ8VaI9TYn2</t>
         </is>
       </c>
-      <c r="C509" t="inlineStr">
+      <c r="C510" t="inlineStr">
         <is>
           <t>Well Done</t>
         </is>
       </c>
-      <c r="D509" t="inlineStr">
+      <c r="D510" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E509" t="inlineStr">
+      <c r="E510" t="inlineStr">
         <is>
           <t>2011-11-22</t>
         </is>
       </c>
-      <c r="F509" t="inlineStr">
+      <c r="F510" t="inlineStr">
         <is>
           <t>spotify:artist:7BMccF0hQFBpP6417k1OtQ, 0</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
+      <c r="G510" t="inlineStr">
         <is>
           <t>Action Bronson, Statik Selektah</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>https://i.scdn.co/image/ab67616d0000b2735b55e54245236360a21deb38</t>
         </is>
       </c>
     </row>
